--- a/data/location.xlsx
+++ b/data/location.xlsx
@@ -429,20 +429,25 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>LocationId</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>CityId</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>City</t>
         </is>
